--- a/_DOC/Android_GCAAD.xlsx
+++ b/_DOC/Android_GCAAD.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A158DB8-1ED8-48D5-B559-B6079F44A2AF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4206651-3149-4842-A080-30D4988EB513}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1969,9 +1969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89FB1FD6-4939-4489-9B1C-748C37108D4C}">
   <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2610,7 +2608,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="72" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="57.75" x14ac:dyDescent="0.25">
       <c r="A65" s="27" t="s">
         <v>244</v>
       </c>
@@ -3106,7 +3104,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
         <v>266</v>
       </c>

--- a/_DOC/Android_GCAAD.xlsx
+++ b/_DOC/Android_GCAAD.xlsx
@@ -3,16 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4206651-3149-4842-A080-30D4988EB513}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A3D9F2-6ABE-4890-8D3F-C54FC71BE75E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name=" Android Basics in Kotlin" sheetId="4" r:id="rId1"/>
     <sheet name="Android Fundamrntal" sheetId="3" r:id="rId2"/>
-    <sheet name="Advanced Android in Kotlin" sheetId="5" r:id="rId3"/>
-    <sheet name="Templates" sheetId="2" r:id="rId4"/>
-    <sheet name="LINKS" sheetId="1" r:id="rId5"/>
+    <sheet name="Fundamrntal+" sheetId="6" r:id="rId3"/>
+    <sheet name="Advanced Android in Kotlin" sheetId="5" r:id="rId4"/>
+    <sheet name="Templates" sheetId="2" r:id="rId5"/>
+    <sheet name="LINKS" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="401">
   <si>
     <t>Добавляет но вызывать надо самому</t>
   </si>
@@ -1159,12 +1160,171 @@
   <si>
     <t>N:\2020_GCAAD\Android Kotlin Fundamentals\Android-kotlin-fundamentals-apps</t>
   </si>
+  <si>
+    <t>https://codelabs.developers.google.com/codelabs/android-databinding/#0</t>
+  </si>
+  <si>
+    <t>Data Binding in Android</t>
+  </si>
+  <si>
+    <t>Before you begin</t>
+  </si>
+  <si>
+    <t>Try out the app without Data Binding</t>
+  </si>
+  <si>
+    <t>Enable Data Binding and convert the layout</t>
+  </si>
+  <si>
+    <t>Create your first layout expression</t>
+  </si>
+  <si>
+    <t>Change inflation and remove UI calls from activity</t>
+  </si>
+  <si>
+    <t>Dealing with user events</t>
+  </si>
+  <si>
+    <t>Observing data</t>
+  </si>
+  <si>
+    <t>Using Binding Adapters to create custom attributes</t>
+  </si>
+  <si>
+    <t>Create a Binding Adapter with multiple parameters</t>
+  </si>
+  <si>
+    <t>Practice creating Binding Adapters</t>
+  </si>
+  <si>
+    <t>You're bound to succeed!</t>
+  </si>
+  <si>
+    <t>Связывание данных в Android</t>
+  </si>
+  <si>
+    <t>Прежде чем вы начнете</t>
+  </si>
+  <si>
+    <t>Попробуйте приложение без привязки данных</t>
+  </si>
+  <si>
+    <t>Включить привязку данных и преобразовать макет</t>
+  </si>
+  <si>
+    <t>Создайте ваше первое выражение макета</t>
+  </si>
+  <si>
+    <t>Изменить инфляцию и удалить вызовы пользовательского интерфейса из активности</t>
+  </si>
+  <si>
+    <t>Работа с пользовательскими событиями</t>
+  </si>
+  <si>
+    <t>Наблюдение за данными</t>
+  </si>
+  <si>
+    <t>Использование Binding Adapters для создания пользовательских атрибутов</t>
+  </si>
+  <si>
+    <t>Создайте адаптер привязки с несколькими параметрами</t>
+  </si>
+  <si>
+    <t>Практика создания связующих адаптеров</t>
+  </si>
+  <si>
+    <t>Вы обязательно преуспеете!</t>
+  </si>
+  <si>
+    <t>https://codelabs.developers.google.com/codelabs/android-navigation/index.html?index=..%2F..%2Findex#0</t>
+  </si>
+  <si>
+    <t>Jetpack Navigation</t>
+  </si>
+  <si>
+    <t>Introduction</t>
+  </si>
+  <si>
+    <t>Getting Started</t>
+  </si>
+  <si>
+    <t>Introducing the Navigation Graph</t>
+  </si>
+  <si>
+    <t>Add a Destination to the Navigation Graph</t>
+  </si>
+  <si>
+    <t>Using the Navigation Graph to Navigate</t>
+  </si>
+  <si>
+    <t>Changing the Navigation Transition</t>
+  </si>
+  <si>
+    <t>Navigate using actions</t>
+  </si>
+  <si>
+    <t>Using safe args for navigation</t>
+  </si>
+  <si>
+    <t>Navigating using menus, drawers and bottom navigation</t>
+  </si>
+  <si>
+    <t>Deep Linking to a destination</t>
+  </si>
+  <si>
+    <t>Associating a web link with a destination</t>
+  </si>
+  <si>
+    <t>[Optional] Try navigating on your own</t>
+  </si>
+  <si>
+    <t>Congratulations!</t>
+  </si>
+  <si>
+    <t>Введение</t>
+  </si>
+  <si>
+    <t>Начиная</t>
+  </si>
+  <si>
+    <t>Представляем навигационный график</t>
+  </si>
+  <si>
+    <t>Добавить пункт назначения на навигационную диаграмму</t>
+  </si>
+  <si>
+    <t>Использование навигационного графика для навигации</t>
+  </si>
+  <si>
+    <t>Изменение навигационного перехода</t>
+  </si>
+  <si>
+    <t>Навигация с помощью действий</t>
+  </si>
+  <si>
+    <t>Использование безопасных аргументов для навигации</t>
+  </si>
+  <si>
+    <t>Навигация с использованием меню, ящиков и нижней навигации</t>
+  </si>
+  <si>
+    <t>Глубокая связь с пунктом назначения</t>
+  </si>
+  <si>
+    <t>Связывание веб-ссылки с пунктом назначения</t>
+  </si>
+  <si>
+    <t>[Необязательно] Попробуйте самостоятельно</t>
+  </si>
+  <si>
+    <t>Поздравляем!</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1340,6 +1500,14 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <u/>
+      <sz val="14"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1392,7 +1560,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1489,6 +1657,23 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -1969,7 +2154,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89FB1FD6-4939-4489-9B1C-748C37108D4C}">
   <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
+    <sheetView topLeftCell="A16" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2825,10 +3012,389 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28C275C1-F91D-4194-9B74-8BBCA9BEB490}">
+  <dimension ref="A1:F37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="49.5703125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="7.5703125" style="45" customWidth="1"/>
+    <col min="2" max="2" width="60.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="67.28515625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="49.5703125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B1" s="31" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B3" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="43"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="33"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B5" s="44" t="s">
+        <v>349</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="45">
+        <v>1</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>350</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="45">
+        <v>2</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>351</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="42" x14ac:dyDescent="0.35">
+      <c r="A9" s="45">
+        <v>3</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>352</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="45">
+        <v>4</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>353</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="42" x14ac:dyDescent="0.35">
+      <c r="A11" s="45">
+        <v>5</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>354</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="45">
+        <v>6</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>355</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="45">
+        <v>7</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>356</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="42" x14ac:dyDescent="0.35">
+      <c r="A14" s="45">
+        <v>8</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>357</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="42" x14ac:dyDescent="0.35">
+      <c r="A15" s="45">
+        <v>9</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>358</v>
+      </c>
+      <c r="C15" s="41" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="45">
+        <v>10</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>359</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="45">
+        <v>11</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>360</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B20" s="5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="47.25" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B23" s="40" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="45">
+        <v>1</v>
+      </c>
+      <c r="B25" s="46" t="s">
+        <v>375</v>
+      </c>
+      <c r="C25" s="46" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="45">
+        <v>2</v>
+      </c>
+      <c r="B26" s="46" t="s">
+        <v>376</v>
+      </c>
+      <c r="C26" s="46" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="45">
+        <v>3</v>
+      </c>
+      <c r="B27" s="46" t="s">
+        <v>377</v>
+      </c>
+      <c r="C27" s="46" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="45">
+        <v>4</v>
+      </c>
+      <c r="B28" s="46" t="s">
+        <v>378</v>
+      </c>
+      <c r="C28" s="46" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="45">
+        <v>5</v>
+      </c>
+      <c r="B29" s="46" t="s">
+        <v>379</v>
+      </c>
+      <c r="C29" s="46" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="45">
+        <v>6</v>
+      </c>
+      <c r="B30" s="46" t="s">
+        <v>380</v>
+      </c>
+      <c r="C30" s="46" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="45">
+        <v>7</v>
+      </c>
+      <c r="B31" s="46" t="s">
+        <v>381</v>
+      </c>
+      <c r="C31" s="46" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="45">
+        <v>8</v>
+      </c>
+      <c r="B32" s="46" t="s">
+        <v>382</v>
+      </c>
+      <c r="C32" s="46" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="37.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="45">
+        <v>9</v>
+      </c>
+      <c r="B33" s="46" t="s">
+        <v>383</v>
+      </c>
+      <c r="C33" s="46" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="45">
+        <v>10</v>
+      </c>
+      <c r="B34" s="46" t="s">
+        <v>384</v>
+      </c>
+      <c r="C34" s="46" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="45">
+        <v>11</v>
+      </c>
+      <c r="B35" s="46" t="s">
+        <v>385</v>
+      </c>
+      <c r="C35" s="46" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="45">
+        <v>12</v>
+      </c>
+      <c r="B36" s="46" t="s">
+        <v>386</v>
+      </c>
+      <c r="C36" s="46" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="45">
+        <v>13</v>
+      </c>
+      <c r="B37" s="46" t="s">
+        <v>387</v>
+      </c>
+      <c r="C37" s="46" t="s">
+        <v>400</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" location="0" display="https://codelabs.developers.google.com/codelabs/kotlin-android-training-data-binding-basics/ - 0" xr:uid="{32647FF3-FC6A-427E-9A81-73BEDC4C9472}"/>
+    <hyperlink ref="B3" r:id="rId2" location="0" display="https://codelabs.developers.google.com/codelabs/kotlin-android-training-data-binding-basics/ - 0" xr:uid="{1C389AF2-93C7-428F-A5F4-236584FF82E2}"/>
+    <hyperlink ref="B1" r:id="rId3" location="0" display="https://codelabs.developers.google.com/codelabs/android-databinding/ - 0" xr:uid="{BAB87666-8EB5-44EF-9E23-80FA76C74997}"/>
+    <hyperlink ref="B7" r:id="rId4" location="0" display="https://codelabs.developers.google.com/codelabs/android-databinding/ - 0" xr:uid="{4295A3A0-4B39-4A3F-869F-041CB3279DF2}"/>
+    <hyperlink ref="B8" r:id="rId5" location="1" display="https://codelabs.developers.google.com/codelabs/android-databinding/ - 1" xr:uid="{BC868072-9863-4710-B3FC-DF419903EEBC}"/>
+    <hyperlink ref="B9" r:id="rId6" location="2" display="https://codelabs.developers.google.com/codelabs/android-databinding/ - 2" xr:uid="{061D1627-79B1-4F46-99B5-D84B33B8E9F3}"/>
+    <hyperlink ref="B10" r:id="rId7" location="3" display="https://codelabs.developers.google.com/codelabs/android-databinding/ - 3" xr:uid="{0FD700FB-29EB-4F4A-80D0-C9542286AE63}"/>
+    <hyperlink ref="B11" r:id="rId8" location="4" display="https://codelabs.developers.google.com/codelabs/android-databinding/ - 4" xr:uid="{003C5086-91B1-4562-BC87-C283D8372183}"/>
+    <hyperlink ref="B12" r:id="rId9" location="5" display="https://codelabs.developers.google.com/codelabs/android-databinding/ - 5" xr:uid="{B72BA2D0-1783-45E2-B1BE-A1CD4856B932}"/>
+    <hyperlink ref="B13" r:id="rId10" location="6" display="https://codelabs.developers.google.com/codelabs/android-databinding/ - 6" xr:uid="{9B2107DC-CF8F-49F9-A50B-2C17643B696D}"/>
+    <hyperlink ref="B14" r:id="rId11" location="7" display="https://codelabs.developers.google.com/codelabs/android-databinding/ - 7" xr:uid="{A739EA3A-6566-4986-A5AE-3508A75BF04A}"/>
+    <hyperlink ref="B15" r:id="rId12" location="8" display="https://codelabs.developers.google.com/codelabs/android-databinding/ - 8" xr:uid="{7F47666A-94BA-4CB0-A23A-936246332F7F}"/>
+    <hyperlink ref="B16" r:id="rId13" location="9" display="https://codelabs.developers.google.com/codelabs/android-databinding/ - 9" xr:uid="{FED57C5B-1999-456D-896E-A7EFD516C0A7}"/>
+    <hyperlink ref="B17" r:id="rId14" location="10" display="https://codelabs.developers.google.com/codelabs/android-databinding/ - 10" xr:uid="{1374902E-B7A5-419F-9384-2443CDDD0B8C}"/>
+    <hyperlink ref="C7" r:id="rId15" location="0" display="https://codelabs.developers.google.com/codelabs/android-databinding/ - 0" xr:uid="{413A04C7-1C52-48AA-8014-E68780230612}"/>
+    <hyperlink ref="C8" r:id="rId16" location="1" display="https://codelabs.developers.google.com/codelabs/android-databinding/ - 1" xr:uid="{EB557745-166E-4135-8D99-FA607575F5F3}"/>
+    <hyperlink ref="C9" r:id="rId17" location="2" display="https://codelabs.developers.google.com/codelabs/android-databinding/ - 2" xr:uid="{265680DF-6E8F-4022-A915-C239D78CA41E}"/>
+    <hyperlink ref="C10" r:id="rId18" location="3" display="https://codelabs.developers.google.com/codelabs/android-databinding/ - 3" xr:uid="{A85AD9B0-CC11-4A0B-975D-DA02878F2282}"/>
+    <hyperlink ref="C11" r:id="rId19" location="4" display="https://codelabs.developers.google.com/codelabs/android-databinding/ - 4" xr:uid="{32CDC453-98F5-4A64-9A01-13AB2C231598}"/>
+    <hyperlink ref="C12" r:id="rId20" location="5" display="https://codelabs.developers.google.com/codelabs/android-databinding/ - 5" xr:uid="{B8131A97-BB3F-48A1-9DBE-A3C28338FF99}"/>
+    <hyperlink ref="C13" r:id="rId21" location="6" display="https://codelabs.developers.google.com/codelabs/android-databinding/ - 6" xr:uid="{AE0F936C-A7C3-4D03-BD16-F216BE3EEECA}"/>
+    <hyperlink ref="C14" r:id="rId22" location="7" display="https://codelabs.developers.google.com/codelabs/android-databinding/ - 7" xr:uid="{14CE84D0-9492-4A15-9E7E-5AB351720BF8}"/>
+    <hyperlink ref="C15" r:id="rId23" location="8" display="https://codelabs.developers.google.com/codelabs/android-databinding/ - 8" xr:uid="{49696B09-86F2-4478-A478-6636A0F1BEE0}"/>
+    <hyperlink ref="C16" r:id="rId24" location="9" display="https://codelabs.developers.google.com/codelabs/android-databinding/ - 9" xr:uid="{B33F7F08-4043-46E0-9D29-3DD70AADB12E}"/>
+    <hyperlink ref="C17" r:id="rId25" location="10" display="https://codelabs.developers.google.com/codelabs/android-databinding/ - 10" xr:uid="{F64C63A0-8010-4CEB-9271-360DF4D9E1C7}"/>
+    <hyperlink ref="B20" r:id="rId26" location="0" display="https://codelabs.developers.google.com/codelabs/android-navigation/index.html?index=..%2F..%2Findex - 0" xr:uid="{D4CBF2E0-53A4-4C35-9BCE-B2006DBBD2B7}"/>
+    <hyperlink ref="B25" r:id="rId27" location="0" display="https://codelabs.developers.google.com/codelabs/android-navigation/index.html?index=..%2F..%2Findex - 0" xr:uid="{CB152BFC-8374-4347-8E50-5EDC15DC45CF}"/>
+    <hyperlink ref="B26" r:id="rId28" location="1" display="https://codelabs.developers.google.com/codelabs/android-navigation/index.html?index=..%2F..%2Findex - 1" xr:uid="{D11F7B4A-467B-42BA-9423-796C8963824C}"/>
+    <hyperlink ref="B27" r:id="rId29" location="2" display="https://codelabs.developers.google.com/codelabs/android-navigation/index.html?index=..%2F..%2Findex - 2" xr:uid="{378DB0FA-E7EB-4031-93CC-E8F4DC242FA8}"/>
+    <hyperlink ref="B28" r:id="rId30" location="3" display="https://codelabs.developers.google.com/codelabs/android-navigation/index.html?index=..%2F..%2Findex - 3" xr:uid="{680F13AF-67CE-4E64-B6C0-4FFABCAAA7DA}"/>
+    <hyperlink ref="B29" r:id="rId31" location="4" display="https://codelabs.developers.google.com/codelabs/android-navigation/index.html?index=..%2F..%2Findex - 4" xr:uid="{1A9DB184-7B3F-4A3B-902E-E238D32D0944}"/>
+    <hyperlink ref="B30" r:id="rId32" location="5" display="https://codelabs.developers.google.com/codelabs/android-navigation/index.html?index=..%2F..%2Findex - 5" xr:uid="{DA3AF661-8EA9-4D5F-9C5E-76AD8D720144}"/>
+    <hyperlink ref="B31" r:id="rId33" location="6" display="https://codelabs.developers.google.com/codelabs/android-navigation/index.html?index=..%2F..%2Findex - 6" xr:uid="{15093493-4155-4FBF-AE01-F77F0EDE4DF5}"/>
+    <hyperlink ref="B32" r:id="rId34" location="7" display="https://codelabs.developers.google.com/codelabs/android-navigation/index.html?index=..%2F..%2Findex - 7" xr:uid="{1468291C-560F-4876-94DD-8747B53A33EF}"/>
+    <hyperlink ref="B33" r:id="rId35" location="8" display="https://codelabs.developers.google.com/codelabs/android-navigation/index.html?index=..%2F..%2Findex - 8" xr:uid="{D8015BBA-F7FE-4033-99FB-95804E89E038}"/>
+    <hyperlink ref="B34" r:id="rId36" location="9" display="https://codelabs.developers.google.com/codelabs/android-navigation/index.html?index=..%2F..%2Findex - 9" xr:uid="{5F8EC10F-B800-4EF2-82C0-2DECA20A91C5}"/>
+    <hyperlink ref="B35" r:id="rId37" location="10" display="https://codelabs.developers.google.com/codelabs/android-navigation/index.html?index=..%2F..%2Findex - 10" xr:uid="{BE69037A-A1B1-4F0F-9966-EAA07750DC12}"/>
+    <hyperlink ref="B36" r:id="rId38" location="11" display="https://codelabs.developers.google.com/codelabs/android-navigation/index.html?index=..%2F..%2Findex - 11" xr:uid="{EEDDD06C-AF3C-4B07-BA18-B590BF277CD5}"/>
+    <hyperlink ref="B37" r:id="rId39" location="12" display="https://codelabs.developers.google.com/codelabs/android-navigation/index.html?index=..%2F..%2Findex - 12" xr:uid="{8F030854-C465-4256-A35C-3BD03A35FDFD}"/>
+    <hyperlink ref="C25" r:id="rId40" location="0" display="https://codelabs.developers.google.com/codelabs/android-navigation/index.html?index=..%2F..%2Findex - 0" xr:uid="{8368E087-0637-4029-907E-BBF2E0B2252F}"/>
+    <hyperlink ref="C26" r:id="rId41" location="1" display="https://codelabs.developers.google.com/codelabs/android-navigation/index.html?index=..%2F..%2Findex - 1" xr:uid="{43300D5A-90AA-4BF7-A7AA-E87E8DC354EA}"/>
+    <hyperlink ref="C27" r:id="rId42" location="2" display="https://codelabs.developers.google.com/codelabs/android-navigation/index.html?index=..%2F..%2Findex - 2" xr:uid="{480C079C-7A1F-49F5-9089-C90C3DA1E7D6}"/>
+    <hyperlink ref="C28" r:id="rId43" location="3" display="https://codelabs.developers.google.com/codelabs/android-navigation/index.html?index=..%2F..%2Findex - 3" xr:uid="{C8956382-F5BA-4222-AFFA-DA20ED80E9E5}"/>
+    <hyperlink ref="C29" r:id="rId44" location="4" display="https://codelabs.developers.google.com/codelabs/android-navigation/index.html?index=..%2F..%2Findex - 4" xr:uid="{9655C1D5-9A65-43D6-9E58-86780D6CA06D}"/>
+    <hyperlink ref="C30" r:id="rId45" location="5" display="https://codelabs.developers.google.com/codelabs/android-navigation/index.html?index=..%2F..%2Findex - 5" xr:uid="{746787F6-57F6-40D2-BF48-B76CEB4D75BE}"/>
+    <hyperlink ref="C31" r:id="rId46" location="6" display="https://codelabs.developers.google.com/codelabs/android-navigation/index.html?index=..%2F..%2Findex - 6" xr:uid="{9366C585-30C9-4586-855A-E7F914075006}"/>
+    <hyperlink ref="C32" r:id="rId47" location="7" display="https://codelabs.developers.google.com/codelabs/android-navigation/index.html?index=..%2F..%2Findex - 7" xr:uid="{1044226E-031C-4759-961F-FDD21518A366}"/>
+    <hyperlink ref="C33" r:id="rId48" location="8" display="https://codelabs.developers.google.com/codelabs/android-navigation/index.html?index=..%2F..%2Findex - 8" xr:uid="{4B087759-4A6D-46BC-8263-AF04D3B8FA20}"/>
+    <hyperlink ref="C34" r:id="rId49" location="9" display="https://codelabs.developers.google.com/codelabs/android-navigation/index.html?index=..%2F..%2Findex - 9" xr:uid="{FCAE0311-4346-4606-8084-063758496969}"/>
+    <hyperlink ref="C35" r:id="rId50" location="10" display="https://codelabs.developers.google.com/codelabs/android-navigation/index.html?index=..%2F..%2Findex - 10" xr:uid="{4FC28AD8-3761-4DE3-93E0-9EE60E3807A2}"/>
+    <hyperlink ref="C36" r:id="rId51" location="11" display="https://codelabs.developers.google.com/codelabs/android-navigation/index.html?index=..%2F..%2Findex - 11" xr:uid="{F943EE49-BDD7-420C-A24C-250D5E408C92}"/>
+    <hyperlink ref="C37" r:id="rId52" location="12" display="https://codelabs.developers.google.com/codelabs/android-navigation/index.html?index=..%2F..%2Findex - 12" xr:uid="{BEDDABCF-56C4-4EF1-86F6-3DB91A2D42FE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId53"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B881501D-74AA-4118-94BA-54D6825FC1D4}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A40" sqref="A40:A41"/>
     </sheetView>
   </sheetViews>
@@ -3104,7 +3670,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
         <v>266</v>
       </c>
@@ -3149,7 +3715,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D03337-B12A-41C3-8ABA-870467715C0D}">
   <dimension ref="A1:I20"/>
   <sheetViews>
@@ -3533,7 +4099,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/_DOC/Android_GCAAD.xlsx
+++ b/_DOC/Android_GCAAD.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A3D9F2-6ABE-4890-8D3F-C54FC71BE75E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DCAC7CD-F36E-47A1-AEC0-96CF953D4ABA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2795,7 +2795,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="57.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="72" x14ac:dyDescent="0.25">
       <c r="A65" s="27" t="s">
         <v>244</v>
       </c>
@@ -3015,7 +3015,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28C275C1-F91D-4194-9B74-8BBCA9BEB490}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
